--- a/eLearning Module Replications.xlsx
+++ b/eLearning Module Replications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s194717_dtu_dk/Documents/School/Simulation in Operations Management/fishManufactureSimulatoin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{4E9F5054-0F24-F843-9AFC-668E678ED475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA01A939-32BD-4B8C-B2F5-A0A16D46EB64}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="13_ncr:1_{4E9F5054-0F24-F843-9AFC-668E678ED475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F8879D6-E7A4-4817-B41C-D24DA23BEDCA}"/>
   <bookViews>
-    <workbookView xWindow="1310" yWindow="610" windowWidth="14400" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1130" windowWidth="14400" windowHeight="9670" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rossetti - Half Width" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Replication Number</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Absolut half-width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff between </t>
   </si>
 </sst>
 </file>
@@ -778,34 +781,34 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28.372101483744451</c:v>
+                  <c:v>1.7396755984643672E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0930253709361129</c:v>
+                  <c:v>4.349188996160918E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1524557204160506</c:v>
+                  <c:v>1.9329728871826308E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7732563427340282</c:v>
+                  <c:v>1.0872972490402295E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.134884059349778</c:v>
+                  <c:v>6.9587023938574692E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78811393010401265</c:v>
+                  <c:v>4.8324322179565769E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57902247926009076</c:v>
+                  <c:v>3.5503583642129932E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44331408568350705</c:v>
+                  <c:v>2.7182431226005738E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.35027285782400569</c:v>
+                  <c:v>2.1477476524251452E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2837210148374445</c:v>
+                  <c:v>1.7396755984643673E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2057,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>12.71095961412316</v>
+        <v>11.862110915617979</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="8"/>
@@ -2070,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.593163534787166</v>
+        <v>11.322629629386572</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="8"/>
@@ -2083,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12.755258347741863</v>
+        <v>11.755126883683573</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="8"/>
@@ -2096,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>12.424017820139493</v>
+        <v>11.143216920381517</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="8"/>
@@ -2109,7 +2112,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12.524008454642363</v>
+        <v>11.170239015032543</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="8"/>
@@ -2122,7 +2125,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12.696349563421647</v>
+        <v>11.26318086434588</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="8"/>
@@ -2135,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12.656424011270571</v>
+        <v>10.907048535237937</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="8"/>
@@ -2148,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12.595803194401098</v>
+        <v>12.07500706911728</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="8"/>
@@ -2161,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>12.777429136297972</v>
+        <v>11.337531450216057</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="8"/>
@@ -2174,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>12.47649072831503</v>
+        <v>11.497962819114122</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" s="8"/>
@@ -2187,7 +2190,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12.788907987270811</v>
+        <v>11.25466719757299</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" s="2"/>
@@ -2199,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12.655635235934842</v>
+        <v>11.158283165972074</v>
       </c>
       <c r="C13" s="1"/>
       <c r="E13" s="2"/>
@@ -2211,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12.842159292202322</v>
+        <v>11.466269122062025</v>
       </c>
       <c r="C14" s="1"/>
       <c r="E14" s="2"/>
@@ -2223,7 +2226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>12.722698412228041</v>
+        <v>11.661615735915657</v>
       </c>
       <c r="C15" s="1"/>
       <c r="E15" s="2"/>
@@ -2235,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>12.680190993163322</v>
+        <v>11.287718655385913</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="2"/>
@@ -2276,7 +2279,7 @@
       </c>
       <c r="B20" s="28">
         <f>IFERROR(AVERAGE(B2:B16),"")</f>
-        <v>12.659966421729314</v>
+        <v>11.41084053193614</v>
       </c>
       <c r="C20" s="20"/>
       <c r="E20" s="2"/>
@@ -2288,7 +2291,7 @@
       </c>
       <c r="B21" s="28">
         <f>IFERROR(STDEVA(B2:B16),"")</f>
-        <v>0.11874254238589659</v>
+        <v>0.31150063291264801</v>
       </c>
       <c r="C21" s="20"/>
       <c r="E21" s="2"/>
@@ -2326,7 +2329,7 @@
       </c>
       <c r="B24" s="30">
         <f>IFERROR(_xlfn.T.INV(1-(B23/2),B19-1)*(B21/SQRT(B19)),"")</f>
-        <v>9.12675947621404E-2</v>
+        <v>0.23942483428078026</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>10</v>
@@ -2356,7 +2359,7 @@
       </c>
       <c r="B26" s="54">
         <f>IFERROR(B19*(B24/B25)^2,"")</f>
-        <v>49.978643121997656</v>
+        <v>343.94550762227442</v>
       </c>
       <c r="C26" s="55" t="s">
         <v>13</v>
@@ -9621,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12186936-AD71-7443-9BA3-6E496D913EBB}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="71" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -9645,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.547491097101544</v>
+        <v>0.99352914016930782</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9661,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.415486969968565</v>
+        <v>0.99359218928600901</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9677,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>14.274678480651048</v>
+        <v>0.99104408934158239</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9693,7 +9696,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13.839894461643144</v>
+        <v>0.99358151044639376</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9709,7 +9712,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>13.957273395122844</v>
+        <v>0.99112677307765973</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9725,7 +9728,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14.704812325114403</v>
+        <v>0.9935752336409005</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9741,7 +9744,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>12.819362803931106</v>
+        <v>0.99361972615459992</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9757,7 +9760,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>14.549612587376847</v>
+        <v>0.99356300133559505</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -9773,7 +9776,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14.242908497170026</v>
+        <v>0.99363398532295688</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9789,7 +9792,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14.662171261711052</v>
+        <v>0.99357759015112634</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9805,7 +9808,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>14.581435685293208</v>
+        <v>0.99354563329583745</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9821,7 +9824,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>14.507682992156141</v>
+        <v>0.99359391879500225</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9837,7 +9840,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16.16632462628565</v>
+        <v>0.99359276015711162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9853,7 +9856,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>15.341880569522301</v>
+        <v>0.9936284243295932</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9869,11 +9872,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>14.459945459695886</v>
+        <v>0.99357446556271989</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="1">
+        <f>B21/B20</f>
+        <v>8.8615203670777264E-4</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -9946,43 +9954,43 @@
       </c>
       <c r="B20" s="28">
         <f>IFERROR(AVERAGE($B2:$B16),"")</f>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="C20" s="28">
         <f t="shared" ref="C20:G20" si="2">IFERROR(AVERAGE($B2:$B16),"")</f>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="D20" s="28">
         <f t="shared" si="2"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="E20" s="28">
         <f t="shared" si="2"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" si="2"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="G20" s="28">
         <f t="shared" si="2"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="H20" s="28">
         <f t="shared" ref="H20:K20" si="3">IFERROR(AVERAGE($B2:$B16),"")</f>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="I20" s="28">
         <f t="shared" si="3"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="J20" s="28">
         <f t="shared" si="3"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
       <c r="K20" s="28">
         <f t="shared" si="3"/>
-        <v>14.471397414182913</v>
+        <v>0.9932518960710931</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -9991,43 +9999,43 @@
       </c>
       <c r="B21" s="28">
         <f>IFERROR(STDEVA($B2:$B16),"")</f>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="C21" s="28">
         <f t="shared" ref="C21:G21" si="4">IFERROR(STDEVA($B2:$B16),"")</f>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="D21" s="28">
         <f t="shared" si="4"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="4"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="4"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="G21" s="28">
         <f t="shared" si="4"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="H21" s="28">
         <f t="shared" ref="H21:K21" si="5">IFERROR(STDEVA($B2:$B16),"")</f>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="5"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="5"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
       <c r="K21" s="28">
         <f t="shared" si="5"/>
-        <v>0.71879014294505972</v>
+        <v>8.801721906672561E-4</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -10035,41 +10043,34 @@
         <v>6</v>
       </c>
       <c r="B22" s="29">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="C22" s="29">
-        <f t="shared" ref="C22:G22" si="6">IF(C20="","",0.95)</f>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D22" s="29">
-        <f t="shared" si="6"/>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E22" s="29">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F22" s="29">
-        <f t="shared" si="6"/>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" si="6"/>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="H22" s="29">
-        <f t="shared" ref="H22:J22" si="7">IF(H20="","",0.95)</f>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="I22" s="29">
-        <f t="shared" si="7"/>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="J22" s="29">
-        <f t="shared" si="7"/>
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="K22" s="29">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -10078,43 +10079,43 @@
       </c>
       <c r="B23" s="29">
         <f>IF(B20="","",1-B22)</f>
-        <v>5.0000000000000044E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="C23" s="29">
-        <f t="shared" ref="C23:G23" si="8">IF(C20="","",1-C22)</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="C23:G23" si="6">IF(C20="","",1-C22)</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="D23" s="29">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="E23" s="29">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="F23" s="29">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="G23" s="29">
-        <f t="shared" si="8"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="H23" s="29">
-        <f t="shared" ref="H23" si="9">IF(H20="","",1-H22)</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="H23" si="7">IF(H20="","",1-H22)</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="I23" s="29">
-        <f t="shared" ref="I23" si="10">IF(I20="","",1-I22)</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="I23" si="8">IF(I20="","",1-I22)</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="J23" s="29">
-        <f t="shared" ref="J23" si="11">IF(J20="","",1-J22)</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="J23" si="9">IF(J20="","",1-J22)</f>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="K23" s="29">
-        <f t="shared" ref="K23" si="12">IF(K20="","",1-K22)</f>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" ref="K23" si="10">IF(K20="","",1-K22)</f>
+        <v>1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -10122,44 +10123,44 @@
         <v>9</v>
       </c>
       <c r="B24" s="30">
-        <f t="shared" ref="B24:K24" si="13">IFERROR(_xlfn.T.INV(1-(B23/2),B19-1)*(B21/SQRT(B19)),"")</f>
-        <v>0.39805271342174686</v>
+        <f t="shared" ref="B24:K24" si="11">IFERROR(_xlfn.T.INV(1-(B23/2),B19-1)*(B21/SQRT(B19)),"")</f>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="C24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="D24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="E24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="F24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="G24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="H24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="I24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="J24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
       <c r="K24" s="30">
-        <f t="shared" si="13"/>
-        <v>0.39805271342174686</v>
+        <f t="shared" si="11"/>
+        <v>6.7651573904876818E-4</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -10203,43 +10204,43 @@
       </c>
       <c r="B26" s="28">
         <f>B20*B25</f>
-        <v>0.28942794828365825</v>
+        <v>1.9865037921421861E-2</v>
       </c>
       <c r="C26" s="28">
-        <f t="shared" ref="C26:K26" si="14">C20*C25</f>
-        <v>0.57885589656731651</v>
+        <f t="shared" ref="C26:K26" si="12">C20*C25</f>
+        <v>3.9730075842843722E-2</v>
       </c>
       <c r="D26" s="28">
-        <f t="shared" si="14"/>
-        <v>0.86828384485097476</v>
+        <f t="shared" si="12"/>
+        <v>5.9595113764265586E-2</v>
       </c>
       <c r="E26" s="28">
-        <f t="shared" si="14"/>
-        <v>1.157711793134633</v>
+        <f t="shared" si="12"/>
+        <v>7.9460151685687444E-2</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="14"/>
-        <v>1.4471397414182914</v>
+        <f t="shared" si="12"/>
+        <v>9.9325189607109315E-2</v>
       </c>
       <c r="G26" s="28">
         <f>G20*G25</f>
-        <v>1.7365676897019495</v>
+        <v>0.11919022752853117</v>
       </c>
       <c r="H26" s="28">
-        <f t="shared" si="14"/>
-        <v>2.0259956379856079</v>
+        <f t="shared" si="12"/>
+        <v>0.13905526544995306</v>
       </c>
       <c r="I26" s="28">
-        <f t="shared" si="14"/>
-        <v>2.315423586269266</v>
+        <f t="shared" si="12"/>
+        <v>0.15892030337137489</v>
       </c>
       <c r="J26" s="28">
-        <f t="shared" si="14"/>
-        <v>2.6048515345529242</v>
+        <f t="shared" si="12"/>
+        <v>0.17878534129279675</v>
       </c>
       <c r="K26" s="28">
-        <f t="shared" si="14"/>
-        <v>2.8942794828365828</v>
+        <f t="shared" si="12"/>
+        <v>0.19865037921421863</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -10248,43 +10249,43 @@
       </c>
       <c r="B27" s="54">
         <f>IFERROR(B19*(B24/B26)^2,"")</f>
-        <v>28.372101483744451</v>
+        <v>1.7396755984643672E-2</v>
       </c>
       <c r="C27" s="54">
-        <f t="shared" ref="C27:K27" si="15">IFERROR(C19*(C24/C26)^2,"")</f>
-        <v>7.0930253709361129</v>
+        <f t="shared" ref="C27:K27" si="13">IFERROR(C19*(C24/C26)^2,"")</f>
+        <v>4.349188996160918E-3</v>
       </c>
       <c r="D27" s="54">
-        <f t="shared" si="15"/>
-        <v>3.1524557204160506</v>
+        <f t="shared" si="13"/>
+        <v>1.9329728871826308E-3</v>
       </c>
       <c r="E27" s="54">
-        <f t="shared" si="15"/>
-        <v>1.7732563427340282</v>
+        <f t="shared" si="13"/>
+        <v>1.0872972490402295E-3</v>
       </c>
       <c r="F27" s="54">
-        <f t="shared" si="15"/>
-        <v>1.134884059349778</v>
+        <f t="shared" si="13"/>
+        <v>6.9587023938574692E-4</v>
       </c>
       <c r="G27" s="54">
-        <f t="shared" si="15"/>
-        <v>0.78811393010401265</v>
+        <f t="shared" si="13"/>
+        <v>4.8324322179565769E-4</v>
       </c>
       <c r="H27" s="54">
-        <f t="shared" si="15"/>
-        <v>0.57902247926009076</v>
+        <f t="shared" si="13"/>
+        <v>3.5503583642129932E-4</v>
       </c>
       <c r="I27" s="54">
-        <f t="shared" si="15"/>
-        <v>0.44331408568350705</v>
+        <f t="shared" si="13"/>
+        <v>2.7182431226005738E-4</v>
       </c>
       <c r="J27" s="54">
-        <f t="shared" si="15"/>
-        <v>0.35027285782400569</v>
+        <f t="shared" si="13"/>
+        <v>2.1477476524251452E-4</v>
       </c>
       <c r="K27" s="54">
-        <f t="shared" si="15"/>
-        <v>0.2837210148374445</v>
+        <f t="shared" si="13"/>
+        <v>1.7396755984643673E-4</v>
       </c>
     </row>
   </sheetData>
@@ -10297,12 +10298,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10311,7 +10306,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100343BC21DCB284E4FAC92405281EA9406" ma:contentTypeVersion="10" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="beb8a2ca45494927c75b86b26d509361">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b6e95c8-4c08-49c6-b531-35897912f4d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fda9ee17e2b4f341586de543ac9b97d" ns2:_="">
     <xsd:import namespace="3b6e95c8-4c08-49c6-b531-35897912f4d2"/>
@@ -10495,16 +10490,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F8D12A-0EF5-4017-806F-5361D7E8B9C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43C46B7C-823C-490F-9FAD-181D33D4B967}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -10512,7 +10504,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDA40533-E247-4994-9DE9-E05ADCAF6C9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10528,4 +10520,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F8D12A-0EF5-4017-806F-5361D7E8B9C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>